--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="129">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Certificato medico attestante che il bambino è nato morto</t>
   </si>
   <si>
@@ -101,6 +113,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -354,6 +369,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -439,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -451,6 +469,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -472,285 +491,330 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -772,2325 +836,2676 @@
       <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
   </si>
   <si>
     <t>Certificato medico attestante che il bambino è nato morto</t>
@@ -457,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -549,7 +543,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -561,18 +555,18 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -589,13 +583,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -612,13 +606,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -635,13 +629,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -658,13 +652,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -681,10 +675,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -704,10 +698,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -727,10 +721,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -750,10 +744,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -773,108 +767,108 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>6</v>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>35</v>
@@ -883,21 +877,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>37</v>
@@ -906,44 +900,44 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>42</v>
@@ -952,44 +946,44 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>47</v>
@@ -998,21 +992,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>49</v>
@@ -1021,21 +1015,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>51</v>
@@ -1044,21 +1038,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>53</v>
@@ -1067,21 +1061,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>55</v>
@@ -1090,21 +1084,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>57</v>
@@ -1113,12 +1107,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>58</v>
@@ -1127,7 +1121,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>59</v>
@@ -1136,12 +1130,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>60</v>
@@ -1150,7 +1144,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>61</v>
@@ -1159,12 +1153,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>62</v>
@@ -1173,7 +1167,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>63</v>
@@ -1182,21 +1176,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>65</v>
@@ -1205,21 +1199,21 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>67</v>
@@ -1228,21 +1222,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>69</v>
@@ -1251,21 +1245,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>71</v>
@@ -1274,21 +1268,21 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>73</v>
@@ -1297,12 +1291,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>74</v>
@@ -1311,7 +1305,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>75</v>
@@ -1320,12 +1314,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>76</v>
@@ -1334,7 +1328,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>77</v>
@@ -1343,12 +1337,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>78</v>
@@ -1357,7 +1351,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>79</v>
@@ -1366,12 +1360,12 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>80</v>
@@ -1380,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>81</v>
@@ -1389,21 +1383,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>83</v>
@@ -1412,21 +1406,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>85</v>
@@ -1435,21 +1429,21 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>87</v>
@@ -1458,90 +1452,90 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>49</v>
@@ -1550,21 +1544,21 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>51</v>
@@ -1573,21 +1567,21 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>53</v>
@@ -1596,21 +1590,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>55</v>
@@ -1619,21 +1613,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>57</v>
@@ -1642,12 +1636,12 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>58</v>
@@ -1656,21 +1650,21 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>60</v>
@@ -1679,21 +1673,21 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>62</v>
@@ -1702,53 +1696,53 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>67</v>
@@ -1757,21 +1751,21 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>69</v>
@@ -1780,21 +1774,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>71</v>
@@ -1803,21 +1797,21 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>73</v>
@@ -1826,12 +1820,12 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>74</v>
@@ -1840,21 +1834,21 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>76</v>
@@ -1863,21 +1857,21 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>78</v>
@@ -1886,21 +1880,21 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>80</v>
@@ -1909,53 +1903,53 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>85</v>
@@ -1964,21 +1958,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>87</v>
@@ -1987,7 +1981,7 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
@@ -1995,59 +1989,59 @@
         <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>49</v>
@@ -2056,21 +2050,21 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>51</v>
@@ -2079,21 +2073,21 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>53</v>
@@ -2102,21 +2096,21 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>55</v>
@@ -2125,21 +2119,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>57</v>
@@ -2148,12 +2142,12 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>58</v>
@@ -2162,21 +2156,21 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>60</v>
@@ -2185,21 +2179,21 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>62</v>
@@ -2208,53 +2202,53 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>67</v>
@@ -2263,21 +2257,21 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>69</v>
@@ -2286,21 +2280,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>71</v>
@@ -2309,21 +2303,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>73</v>
@@ -2332,12 +2326,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>74</v>
@@ -2346,21 +2340,21 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>76</v>
@@ -2369,21 +2363,21 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>78</v>
@@ -2392,21 +2386,21 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>80</v>
@@ -2415,53 +2409,53 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>85</v>
@@ -2470,21 +2464,21 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>87</v>
@@ -2493,7 +2487,7 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89">
@@ -2501,36 +2495,36 @@
         <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>47</v>
@@ -2539,44 +2533,44 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>101</v>
@@ -2585,44 +2579,44 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>51</v>
@@ -2631,44 +2625,44 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>105</v>
@@ -2677,44 +2671,44 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>55</v>
@@ -2723,21 +2717,21 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>57</v>
@@ -2746,21 +2740,21 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>59</v>
@@ -2769,21 +2763,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>61</v>
@@ -2792,12 +2786,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>62</v>
@@ -2806,7 +2800,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>63</v>
@@ -2815,15 +2809,15 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2832,18 +2826,18 @@
         <v>98</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>110</v>
@@ -2852,7 +2846,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>111</v>
@@ -2861,12 +2855,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>112</v>
@@ -2875,7 +2869,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>113</v>
@@ -2884,67 +2878,67 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>49</v>
@@ -2953,21 +2947,21 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>51</v>
@@ -2976,21 +2970,21 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>53</v>
@@ -2999,21 +2993,21 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>55</v>
@@ -3022,21 +3016,21 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>57</v>
@@ -3045,12 +3039,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>58</v>
@@ -3059,21 +3053,21 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>60</v>
@@ -3082,21 +3076,21 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>62</v>
@@ -3105,53 +3099,53 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>67</v>
@@ -3160,21 +3154,21 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>69</v>
@@ -3183,21 +3177,21 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>71</v>
@@ -3206,21 +3200,21 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>73</v>
@@ -3229,12 +3223,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>74</v>
@@ -3243,21 +3237,21 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>76</v>
@@ -3266,21 +3260,21 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>78</v>
@@ -3289,21 +3283,21 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>80</v>
@@ -3312,53 +3306,53 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>85</v>
@@ -3367,21 +3361,21 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>87</v>
@@ -3390,90 +3384,90 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>122</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>124</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>126</v>
@@ -3482,30 +3476,7 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,67 +32,70 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Certificato medico attestante che il bambino è nato morto</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>41-bis</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Certificato medico attestante che il bambino è nato morto</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>41-bis</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -808,2675 +811,2675 @@
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
@@ -47,13 +47,13 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Certificato medico attestante che il bambino è nato morto</t>
@@ -368,7 +368,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -466,7 +466,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -454,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1190,7 +1196,7 @@
         <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>45</v>
@@ -1282,7 +1288,7 @@
         <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>45</v>
@@ -1397,7 +1403,7 @@
         <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>45</v>
@@ -1469,10 +1475,10 @@
         <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1483,22 +1489,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>32</v>
@@ -1506,22 +1512,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>32</v>
@@ -1529,19 +1535,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1552,19 +1558,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1575,19 +1581,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1598,19 +1604,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1621,19 +1627,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1644,22 +1650,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>32</v>
@@ -1667,22 +1673,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>32</v>
@@ -1690,22 +1696,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>32</v>
@@ -1713,22 +1719,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>32</v>
@@ -1736,22 +1742,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>32</v>
@@ -1759,19 +1765,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1782,19 +1788,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1805,19 +1811,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1828,22 +1834,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>32</v>
@@ -1851,19 +1857,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1874,19 +1880,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>18</v>
@@ -1897,22 +1903,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>32</v>
@@ -1920,22 +1926,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>32</v>
@@ -1943,22 +1949,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>32</v>
@@ -1966,19 +1972,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1992,19 +1998,19 @@
         <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>32</v>
@@ -2015,7 +2021,7 @@
         <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
@@ -2024,7 +2030,7 @@
         <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2035,22 +2041,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>32</v>
@@ -2058,19 +2064,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2081,19 +2087,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2110,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2133,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2150,22 +2156,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>32</v>
@@ -2173,19 +2179,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2196,19 +2202,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>18</v>
@@ -2219,19 +2225,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2242,22 +2248,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>32</v>
@@ -2265,22 +2271,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>32</v>
@@ -2288,19 +2294,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2311,19 +2317,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2334,22 +2340,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>32</v>
@@ -2357,19 +2363,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2380,22 +2386,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>32</v>
@@ -2403,19 +2409,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>18</v>
@@ -2426,19 +2432,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2449,22 +2455,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>32</v>
@@ -2472,22 +2478,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>32</v>
@@ -2498,16 +2504,16 @@
         <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2521,7 +2527,7 @@
         <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
@@ -2530,7 +2536,7 @@
         <v>97</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2544,16 +2550,16 @@
         <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2564,10 +2570,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -2576,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2587,19 +2593,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2610,19 +2616,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2633,16 +2639,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>104</v>
@@ -2656,10 +2662,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>15</v>
@@ -2668,7 +2674,7 @@
         <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2679,19 +2685,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2702,19 +2708,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2725,19 +2731,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2748,19 +2754,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2771,19 +2777,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2794,19 +2800,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2817,10 +2823,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2829,7 +2835,7 @@
         <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2840,10 +2846,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2852,7 +2858,7 @@
         <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2863,10 +2869,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -2875,7 +2881,7 @@
         <v>99</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2886,599 +2892,691 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="G128" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E131" s="2" t="s">
+      <c r="C134" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -374,7 +374,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -472,7 +475,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3470,7 +3473,7 @@
         <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>15</v>
@@ -3490,10 +3493,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>15</v>
@@ -3502,7 +3505,7 @@
         <v>92</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3513,10 +3516,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3525,7 +3528,7 @@
         <v>92</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>22</v>
@@ -3536,10 +3539,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>15</v>
@@ -3548,7 +3551,7 @@
         <v>30</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3559,10 +3562,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>15</v>
@@ -3571,7 +3574,7 @@
         <v>101</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -375,9 +375,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3473,7 +3470,7 @@
         <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>15</v>
@@ -3493,10 +3490,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>15</v>
@@ -3505,7 +3502,7 @@
         <v>92</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3516,10 +3513,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3528,7 +3525,7 @@
         <v>92</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>22</v>
@@ -3539,10 +3536,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>15</v>
@@ -3551,7 +3548,7 @@
         <v>30</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3562,10 +3559,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>15</v>
@@ -3574,7 +3571,7 @@
         <v>101</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3470,7 +3473,7 @@
         <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>15</v>
@@ -3490,10 +3493,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>15</v>
@@ -3502,7 +3505,7 @@
         <v>92</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3513,10 +3516,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3525,7 +3528,7 @@
         <v>92</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>22</v>
@@ -3536,10 +3539,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>15</v>
@@ -3548,7 +3551,7 @@
         <v>30</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3559,10 +3562,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>15</v>
@@ -3571,7 +3574,7 @@
         <v>101</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -300,6 +300,36 @@
   </si>
   <si>
     <t>evento.madre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -463,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -473,7 +503,7 @@
     <col min="2" max="2" width="53.12890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2044,22 +2074,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>32</v>
@@ -2067,22 +2097,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>32</v>
@@ -2090,19 +2120,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2113,22 +2143,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>32</v>
@@ -2136,22 +2166,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>32</v>
@@ -2159,22 +2189,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>32</v>
@@ -2182,19 +2212,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2205,22 +2235,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>32</v>
@@ -2228,19 +2258,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2251,22 +2281,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>32</v>
@@ -2274,22 +2304,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>32</v>
@@ -2297,19 +2327,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2320,22 +2350,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>32</v>
@@ -2343,19 +2373,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2366,22 +2396,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>32</v>
@@ -2389,22 +2419,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>32</v>
@@ -2412,22 +2442,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>32</v>
@@ -2435,19 +2465,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2458,22 +2488,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>32</v>
@@ -2481,22 +2511,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>32</v>
@@ -2504,19 +2534,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2527,22 +2557,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>32</v>
@@ -2550,19 +2580,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2573,22 +2603,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>32</v>
@@ -2596,22 +2626,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>32</v>
@@ -2619,19 +2649,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2642,19 +2672,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2665,19 +2695,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2688,19 +2718,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2711,22 +2741,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>32</v>
@@ -2734,19 +2764,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2757,22 +2787,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>32</v>
@@ -2780,22 +2810,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>32</v>
@@ -2803,19 +2833,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2826,19 +2856,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2849,19 +2879,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2872,19 +2902,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2895,19 +2925,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2918,19 +2948,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2941,16 +2971,16 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>116</v>
@@ -2964,622 +2994,944 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F109" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E135" s="2" t="s">
+      <c r="G139" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
@@ -3161,7 +3161,7 @@
         <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>111</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -161,6 +161,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -215,13 +221,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -493,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1045,7 +1051,7 @@
         <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>45</v>
@@ -1137,7 +1143,7 @@
         <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>45</v>
@@ -1252,7 +1258,7 @@
         <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>45</v>
@@ -1275,7 +1281,7 @@
         <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>45</v>
@@ -1344,7 +1350,7 @@
         <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>45</v>
@@ -1459,7 +1465,7 @@
         <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>45</v>
@@ -1531,10 +1537,10 @@
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1545,22 +1551,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>32</v>
@@ -1568,22 +1574,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>32</v>
@@ -1591,19 +1597,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1614,19 +1620,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1637,19 +1643,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1660,19 +1666,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1683,19 +1689,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1706,22 +1712,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>32</v>
@@ -1729,19 +1735,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1752,19 +1758,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>18</v>
@@ -1775,22 +1781,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>32</v>
@@ -1798,22 +1804,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>32</v>
@@ -1821,22 +1827,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>32</v>
@@ -1844,19 +1850,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1867,19 +1873,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1890,19 +1896,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1913,22 +1919,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>32</v>
@@ -1936,19 +1942,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1959,19 +1965,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>18</v>
@@ -1982,22 +1988,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>32</v>
@@ -2005,22 +2011,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>32</v>
@@ -2028,22 +2034,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>32</v>
@@ -2051,19 +2057,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2074,19 +2080,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2097,22 +2103,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>32</v>
@@ -2120,19 +2126,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2143,19 +2149,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>18</v>
@@ -2166,22 +2172,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>32</v>
@@ -2189,19 +2195,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>18</v>
@@ -2212,22 +2218,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>32</v>
@@ -2235,22 +2241,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>32</v>
@@ -2258,19 +2264,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2281,19 +2287,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2304,19 +2310,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2327,19 +2333,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2350,22 +2356,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>32</v>
@@ -2373,19 +2379,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2396,22 +2402,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>32</v>
@@ -2419,19 +2425,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>18</v>
@@ -2442,19 +2448,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2465,22 +2471,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>32</v>
@@ -2488,22 +2494,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>32</v>
@@ -2511,19 +2517,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2534,19 +2540,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2557,22 +2563,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>32</v>
@@ -2580,19 +2586,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2603,22 +2609,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>32</v>
@@ -2626,19 +2632,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>18</v>
@@ -2649,19 +2655,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2672,22 +2678,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>32</v>
@@ -2695,22 +2701,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>32</v>
@@ -2718,19 +2724,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2741,22 +2747,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>32</v>
@@ -2764,19 +2770,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2787,22 +2793,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>32</v>
@@ -2810,19 +2816,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>18</v>
@@ -2836,7 +2842,7 @@
         <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2845,7 +2851,7 @@
         <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2859,19 +2865,19 @@
         <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>32</v>
@@ -2882,19 +2888,19 @@
         <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>32</v>
@@ -2902,10 +2908,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -2914,7 +2920,7 @@
         <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2925,19 +2931,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2948,19 +2954,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2971,16 +2977,16 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>116</v>
@@ -2994,19 +3000,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3017,19 +3023,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3040,19 +3046,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3063,19 +3069,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3086,19 +3092,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3109,19 +3115,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3132,19 +3138,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3155,19 +3161,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3178,19 +3184,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3201,19 +3207,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3224,19 +3230,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3247,19 +3253,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3270,10 +3276,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -3282,7 +3288,7 @@
         <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3293,10 +3299,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -3305,7 +3311,7 @@
         <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3316,622 +3322,737 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C126" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B149" s="2" t="s">
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E149" s="2" t="s">
+      <c r="C153" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -499,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1327,7 +1333,7 @@
         <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>45</v>
@@ -1350,7 +1356,7 @@
         <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>45</v>
@@ -1488,7 +1494,7 @@
         <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>45</v>
@@ -1560,10 +1566,10 @@
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1574,22 +1580,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>32</v>
@@ -1597,22 +1603,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>32</v>
@@ -1620,19 +1626,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1643,19 +1649,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1666,19 +1672,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1689,19 +1695,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1718,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1741,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1758,22 +1764,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>32</v>
@@ -1781,22 +1787,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>32</v>
@@ -1804,22 +1810,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>32</v>
@@ -1827,19 +1833,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>18</v>
@@ -1850,22 +1856,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>32</v>
@@ -1873,19 +1879,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1896,19 +1902,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1919,22 +1925,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>32</v>
@@ -1942,19 +1948,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1965,19 +1971,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>18</v>
@@ -1988,19 +1994,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2011,19 +2017,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>18</v>
@@ -2034,22 +2040,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>32</v>
@@ -2057,22 +2063,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>32</v>
@@ -2080,22 +2086,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>32</v>
@@ -2103,19 +2109,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2126,19 +2132,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2149,22 +2155,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>32</v>
@@ -2172,19 +2178,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2195,19 +2201,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>18</v>
@@ -2218,22 +2224,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>32</v>
@@ -2241,19 +2247,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>18</v>
@@ -2264,22 +2270,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>32</v>
@@ -2287,22 +2293,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>32</v>
@@ -2310,19 +2316,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2333,19 +2339,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2356,19 +2362,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2385,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2402,19 +2408,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2425,22 +2431,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>32</v>
@@ -2448,19 +2454,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2471,19 +2477,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>18</v>
@@ -2494,22 +2500,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>32</v>
@@ -2517,22 +2523,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>32</v>
@@ -2540,22 +2546,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>32</v>
@@ -2563,19 +2569,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2592,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2609,22 +2615,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>32</v>
@@ -2632,22 +2638,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>32</v>
@@ -2655,22 +2661,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>32</v>
@@ -2678,22 +2684,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>32</v>
@@ -2701,19 +2707,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>18</v>
@@ -2724,19 +2730,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2747,22 +2753,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>32</v>
@@ -2770,22 +2776,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>32</v>
@@ -2793,19 +2799,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2816,22 +2822,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>32</v>
@@ -2839,19 +2845,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2862,22 +2868,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>32</v>
@@ -2885,19 +2891,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>18</v>
@@ -2911,7 +2917,7 @@
         <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -2920,7 +2926,7 @@
         <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2934,19 +2940,19 @@
         <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>32</v>
@@ -2957,19 +2963,19 @@
         <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>32</v>
@@ -2977,10 +2983,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -2989,7 +2995,7 @@
         <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3000,19 +3006,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3023,19 +3029,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3046,19 +3052,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3069,19 +3075,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3092,10 +3098,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>15</v>
@@ -3104,7 +3110,7 @@
         <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3115,19 +3121,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3138,19 +3144,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3161,19 +3167,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3184,19 +3190,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3207,19 +3213,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3230,19 +3236,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3253,19 +3259,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3276,19 +3282,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3299,19 +3305,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3322,19 +3328,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3345,19 +3351,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3368,10 +3374,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3380,7 +3386,7 @@
         <v>113</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3391,10 +3397,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3403,7 +3409,7 @@
         <v>113</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3414,645 +3420,737 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G150" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B154" s="2" t="s">
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E154" s="2" t="s">
+      <c r="C157" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -505,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1517,7 +1523,7 @@
         <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>45</v>
@@ -1589,10 +1595,10 @@
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1603,22 +1609,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>32</v>
@@ -1626,22 +1632,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>32</v>
@@ -1649,19 +1655,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1672,19 +1678,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1695,19 +1701,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1718,19 +1724,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1741,19 +1747,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1764,19 +1770,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1787,22 +1793,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>32</v>
@@ -1810,22 +1816,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>32</v>
@@ -1833,22 +1839,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>32</v>
@@ -1856,19 +1862,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>18</v>
@@ -1879,22 +1885,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>32</v>
@@ -1902,19 +1908,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1925,22 +1931,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>32</v>
@@ -1948,22 +1954,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>32</v>
@@ -1971,19 +1977,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>18</v>
@@ -1994,19 +2000,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2017,19 +2023,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>18</v>
@@ -2040,19 +2046,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2063,19 +2069,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>18</v>
@@ -2086,22 +2092,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>32</v>
@@ -2109,22 +2115,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>32</v>
@@ -2132,22 +2138,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>32</v>
@@ -2155,19 +2161,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2178,19 +2184,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2201,22 +2207,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>32</v>
@@ -2224,19 +2230,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2247,19 +2253,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>18</v>
@@ -2270,22 +2276,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>32</v>
@@ -2293,19 +2299,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>18</v>
@@ -2316,22 +2322,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>32</v>
@@ -2339,22 +2345,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>32</v>
@@ -2362,19 +2368,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2385,19 +2391,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2408,19 +2414,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2431,19 +2437,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2454,19 +2460,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2477,22 +2483,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>32</v>
@@ -2500,19 +2506,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2523,19 +2529,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>18</v>
@@ -2546,22 +2552,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>32</v>
@@ -2569,22 +2575,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>32</v>
@@ -2592,22 +2598,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>32</v>
@@ -2615,22 +2621,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>32</v>
@@ -2638,19 +2644,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2661,19 +2667,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>18</v>
@@ -2684,22 +2690,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>32</v>
@@ -2707,22 +2713,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>32</v>
@@ -2730,22 +2736,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>32</v>
@@ -2753,22 +2759,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>32</v>
@@ -2776,19 +2782,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>18</v>
@@ -2799,19 +2805,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2822,22 +2828,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>32</v>
@@ -2845,22 +2851,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>32</v>
@@ -2868,19 +2874,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2891,22 +2897,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>32</v>
@@ -2914,19 +2920,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2937,22 +2943,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>32</v>
@@ -2960,19 +2966,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>18</v>
@@ -2986,7 +2992,7 @@
         <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -2995,7 +3001,7 @@
         <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3009,19 +3015,19 @@
         <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>32</v>
@@ -3032,19 +3038,19 @@
         <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>32</v>
@@ -3052,10 +3058,10 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -3064,7 +3070,7 @@
         <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3075,19 +3081,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3098,19 +3104,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3121,19 +3127,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3144,19 +3150,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3167,10 +3173,10 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>15</v>
@@ -3179,7 +3185,7 @@
         <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3190,19 +3196,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3213,19 +3219,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3236,19 +3242,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3259,19 +3265,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3282,19 +3288,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3305,19 +3311,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3328,19 +3334,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3351,19 +3357,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3374,19 +3380,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3397,19 +3403,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3420,19 +3426,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3443,10 +3449,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3455,7 +3461,7 @@
         <v>115</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3466,10 +3472,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3478,7 +3484,7 @@
         <v>115</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3489,668 +3495,760 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G154" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B158" s="2" t="s">
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E158" s="2" t="s">
+      <c r="C161" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Certificato medico attestante che il bambino è nato morto</t>
@@ -511,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -603,30 +609,30 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -643,13 +649,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -666,13 +672,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -689,13 +695,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -712,13 +718,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -735,10 +741,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -758,10 +764,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -781,10 +787,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -804,10 +810,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -827,10 +833,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -849,86 +855,86 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>36</v>
@@ -937,21 +943,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>38</v>
@@ -960,44 +966,44 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>43</v>
@@ -1006,44 +1012,44 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>48</v>
@@ -1052,21 +1058,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>50</v>
@@ -1075,21 +1081,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>52</v>
@@ -1098,21 +1104,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>54</v>
@@ -1121,21 +1127,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>56</v>
@@ -1144,21 +1150,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>58</v>
@@ -1167,21 +1173,21 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>60</v>
@@ -1190,12 +1196,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>61</v>
@@ -1204,7 +1210,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>62</v>
@@ -1213,12 +1219,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>63</v>
@@ -1227,7 +1233,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>64</v>
@@ -1236,12 +1242,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>65</v>
@@ -1250,7 +1256,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>66</v>
@@ -1259,12 +1265,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>67</v>
@@ -1273,7 +1279,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>68</v>
@@ -1282,12 +1288,12 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>69</v>
@@ -1296,7 +1302,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>70</v>
@@ -1305,21 +1311,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>72</v>
@@ -1328,21 +1334,21 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>74</v>
@@ -1351,12 +1357,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>75</v>
@@ -1365,7 +1371,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>76</v>
@@ -1374,12 +1380,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>77</v>
@@ -1388,7 +1394,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>78</v>
@@ -1397,12 +1403,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>79</v>
@@ -1411,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>80</v>
@@ -1420,12 +1426,12 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>81</v>
@@ -1434,7 +1440,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>82</v>
@@ -1443,12 +1449,12 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>83</v>
@@ -1457,7 +1463,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>84</v>
@@ -1466,12 +1472,12 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>85</v>
@@ -1480,7 +1486,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>86</v>
@@ -1489,12 +1495,12 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>87</v>
@@ -1503,7 +1509,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>88</v>
@@ -1512,12 +1518,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>89</v>
@@ -1526,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>90</v>
@@ -1535,21 +1541,21 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>92</v>
@@ -1558,21 +1564,21 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>94</v>
@@ -1581,21 +1587,21 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>96</v>
@@ -1604,90 +1610,90 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>50</v>
@@ -1696,21 +1702,21 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>52</v>
@@ -1719,21 +1725,21 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>54</v>
@@ -1742,21 +1748,21 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>56</v>
@@ -1765,21 +1771,21 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>58</v>
@@ -1788,21 +1794,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>60</v>
@@ -1811,12 +1817,12 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>61</v>
@@ -1825,21 +1831,21 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>63</v>
@@ -1848,21 +1854,21 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>65</v>
@@ -1871,21 +1877,21 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>67</v>
@@ -1894,53 +1900,53 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>72</v>
@@ -1949,35 +1955,35 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>75</v>
@@ -1986,21 +1992,21 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>77</v>
@@ -2009,21 +2015,21 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>79</v>
@@ -2032,21 +2038,21 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>81</v>
@@ -2055,21 +2061,21 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>83</v>
@@ -2078,21 +2084,21 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>85</v>
@@ -2101,21 +2107,21 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>87</v>
@@ -2124,21 +2130,21 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>89</v>
@@ -2147,53 +2153,53 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>94</v>
@@ -2202,21 +2208,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>96</v>
@@ -2225,35 +2231,35 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>104</v>
@@ -2262,21 +2268,21 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>106</v>
@@ -2285,21 +2291,21 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>108</v>
@@ -2308,21 +2314,21 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>110</v>
@@ -2331,76 +2337,76 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>50</v>
@@ -2409,21 +2415,21 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>52</v>
@@ -2432,21 +2438,21 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>54</v>
@@ -2455,21 +2461,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>56</v>
@@ -2478,21 +2484,21 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>58</v>
@@ -2501,21 +2507,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>60</v>
@@ -2524,12 +2530,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>61</v>
@@ -2538,21 +2544,21 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>63</v>
@@ -2561,21 +2567,21 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>65</v>
@@ -2584,21 +2590,21 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>67</v>
@@ -2607,53 +2613,53 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>72</v>
@@ -2662,35 +2668,35 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>75</v>
@@ -2699,21 +2705,21 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>77</v>
@@ -2722,21 +2728,21 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>79</v>
@@ -2745,21 +2751,21 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>81</v>
@@ -2768,21 +2774,21 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>83</v>
@@ -2791,21 +2797,21 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>85</v>
@@ -2814,21 +2820,21 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>87</v>
@@ -2837,21 +2843,21 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>89</v>
@@ -2860,53 +2866,53 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>94</v>
@@ -2915,21 +2921,21 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>96</v>
@@ -2938,35 +2944,35 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>104</v>
@@ -2975,21 +2981,21 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>106</v>
@@ -2998,21 +3004,21 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>108</v>
@@ -3021,21 +3027,21 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>109</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>110</v>
@@ -3044,16 +3050,16 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111">
@@ -3061,7 +3067,7 @@
         <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -3070,27 +3076,27 @@
         <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>48</v>
@@ -3099,44 +3105,44 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>120</v>
@@ -3145,44 +3151,44 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>52</v>
@@ -3191,21 +3197,21 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>54</v>
@@ -3214,44 +3220,44 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>124</v>
@@ -3260,44 +3266,44 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>58</v>
@@ -3306,21 +3312,21 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>60</v>
@@ -3329,21 +3335,21 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>62</v>
@@ -3352,21 +3358,21 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>64</v>
@@ -3375,12 +3381,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>65</v>
@@ -3389,7 +3395,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>66</v>
@@ -3398,58 +3404,58 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>104</v>
@@ -3458,7 +3464,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>105</v>
@@ -3467,12 +3473,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>106</v>
@@ -3481,7 +3487,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>107</v>
@@ -3490,12 +3496,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>108</v>
@@ -3504,7 +3510,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>109</v>
@@ -3513,15 +3519,15 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3530,18 +3536,18 @@
         <v>117</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>131</v>
@@ -3550,7 +3556,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>132</v>
@@ -3559,67 +3565,67 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F133" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>50</v>
@@ -3628,21 +3634,21 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>52</v>
@@ -3651,21 +3657,21 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>54</v>
@@ -3674,21 +3680,21 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>56</v>
@@ -3697,21 +3703,21 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>58</v>
@@ -3720,21 +3726,21 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>60</v>
@@ -3743,12 +3749,12 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>61</v>
@@ -3757,21 +3763,21 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>63</v>
@@ -3780,21 +3786,21 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>65</v>
@@ -3803,21 +3809,21 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>67</v>
@@ -3826,53 +3832,53 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>72</v>
@@ -3881,35 +3887,35 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>75</v>
@@ -3918,21 +3924,21 @@
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>77</v>
@@ -3941,21 +3947,21 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>79</v>
@@ -3964,21 +3970,21 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>81</v>
@@ -3987,21 +3993,21 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>83</v>
@@ -4010,21 +4016,21 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>85</v>
@@ -4033,21 +4039,21 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>87</v>
@@ -4056,21 +4062,21 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>89</v>
@@ -4079,53 +4085,53 @@
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>94</v>
@@ -4134,21 +4140,21 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>96</v>
@@ -4157,90 +4163,90 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E159" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>144</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>146</v>
@@ -4249,7 +4255,30 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
@@ -1345,7 +1345,7 @@
         <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>47</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
@@ -3875,7 +3875,7 @@
         <v>71</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>136</v>
@@ -3898,7 +3898,7 @@
         <v>73</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>136</v>
@@ -3907,7 +3907,7 @@
         <v>74</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>138</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_084.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -517,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1138,7 +1150,7 @@
         <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>47</v>
@@ -1161,7 +1173,7 @@
         <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>47</v>
@@ -1207,7 +1219,7 @@
         <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>47</v>
@@ -1230,7 +1242,7 @@
         <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>47</v>
@@ -1575,7 +1587,7 @@
         <v>93</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>47</v>
@@ -1598,7 +1610,7 @@
         <v>95</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>47</v>
@@ -1647,10 +1659,10 @@
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1661,22 +1673,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>34</v>
@@ -1684,19 +1696,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1707,22 +1719,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>34</v>
@@ -1730,19 +1742,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1765,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1788,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1811,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1822,22 +1834,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>34</v>
@@ -1845,22 +1857,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1868,19 +1880,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1891,22 +1903,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>34</v>
@@ -1914,22 +1926,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>34</v>
@@ -1937,22 +1949,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>34</v>
@@ -1960,19 +1972,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1983,19 +1995,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>20</v>
@@ -2006,19 +2018,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>20</v>
@@ -2029,19 +2041,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2052,22 +2064,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>34</v>
@@ -2075,22 +2087,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>34</v>
@@ -2098,19 +2110,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>20</v>
@@ -2121,19 +2133,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2144,19 +2156,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>20</v>
@@ -2167,22 +2179,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>34</v>
@@ -2190,22 +2202,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>34</v>
@@ -2213,19 +2225,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2236,22 +2248,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>34</v>
@@ -2259,22 +2271,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>34</v>
@@ -2282,22 +2294,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>34</v>
@@ -2305,19 +2317,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2328,22 +2340,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>34</v>
@@ -2351,22 +2363,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>34</v>
@@ -2374,19 +2386,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>20</v>
@@ -2397,19 +2409,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2420,22 +2432,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>34</v>
@@ -2443,22 +2455,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>34</v>
@@ -2466,22 +2478,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>34</v>
@@ -2489,19 +2501,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2512,19 +2524,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2535,19 +2547,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2558,22 +2570,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>34</v>
@@ -2581,22 +2593,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2604,22 +2616,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>34</v>
@@ -2627,22 +2639,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>34</v>
@@ -2650,19 +2662,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2673,19 +2685,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2696,19 +2708,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>20</v>
@@ -2719,22 +2731,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2742,22 +2754,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2765,19 +2777,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>20</v>
@@ -2788,19 +2800,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2811,22 +2823,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>34</v>
@@ -2834,22 +2846,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>34</v>
@@ -2857,19 +2869,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>20</v>
@@ -2880,22 +2892,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -2903,22 +2915,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>34</v>
@@ -2926,19 +2938,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2949,22 +2961,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>34</v>
@@ -2972,19 +2984,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2995,19 +3007,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>20</v>
@@ -3018,22 +3030,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>34</v>
@@ -3041,22 +3053,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>34</v>
@@ -3064,22 +3076,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>34</v>
@@ -3087,19 +3099,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3110,19 +3122,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3133,10 +3145,10 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3145,10 +3157,10 @@
         <v>119</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>34</v>
@@ -3156,10 +3168,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3168,7 +3180,7 @@
         <v>119</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3179,22 +3191,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>34</v>
@@ -3202,22 +3214,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>34</v>
@@ -3225,19 +3237,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3248,19 +3260,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3271,19 +3283,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3294,19 +3306,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3317,19 +3329,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3340,19 +3352,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3363,19 +3375,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3386,19 +3398,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3409,19 +3421,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3432,19 +3444,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3455,19 +3467,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3478,19 +3490,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3501,19 +3513,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3524,19 +3536,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3547,19 +3559,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3570,16 +3582,16 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>134</v>
@@ -3593,691 +3605,875 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E160" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E161" s="2" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E162" s="2" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="E163" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E163" s="2" t="s">
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
+      <c r="F169" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>34</v>
       </c>
     </row>
